--- a/image/conceptmap.xlsx
+++ b/image/conceptmap.xlsx
@@ -1171,45 +1171,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.0859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.82421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="50.49609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.56640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/conceptmap.xlsx
+++ b/image/conceptmap.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="326">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -381,10 +381,6 @@
   </si>
   <si>
     <t>ConceptMap.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the concept map</t>
@@ -1171,45 +1167,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.82421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.56640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.71484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.02734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="50.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2579,16 +2575,16 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2656,10 +2652,10 @@
         <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2667,7 +2663,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2690,19 +2686,19 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2751,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2760,7 +2756,7 @@
         <v>48</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2780,7 +2776,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2803,16 +2799,16 @@
         <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2862,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2880,7 +2876,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2891,7 +2887,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2917,13 +2913,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2949,52 +2945,52 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3002,7 +2998,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3025,19 +3021,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3086,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3104,10 +3100,10 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3115,11 +3111,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3138,16 +3134,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3197,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3215,10 +3211,10 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3226,7 +3222,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3249,19 +3245,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3310,7 +3306,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3328,10 +3324,10 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3339,7 +3335,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3362,16 +3358,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3421,7 +3417,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3439,7 +3435,7 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3450,7 +3446,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3473,16 +3469,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3532,7 +3528,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3550,7 +3546,7 @@
         <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3561,7 +3557,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3584,19 +3580,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3645,7 +3641,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3663,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3674,7 +3670,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3697,16 +3693,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3732,14 +3728,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3756,7 +3752,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3774,7 +3770,7 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3785,7 +3781,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3808,16 +3804,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3867,7 +3863,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3885,10 +3881,10 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>116</v>
@@ -3896,11 +3892,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3919,19 +3915,19 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3980,7 +3976,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3998,7 +3994,7 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -4009,7 +4005,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4032,16 +4028,16 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4091,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4120,7 +4116,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4143,16 +4139,16 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4202,7 +4198,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4231,7 +4227,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4254,13 +4250,13 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4311,7 +4307,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4323,7 +4319,7 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4340,7 +4336,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4363,13 +4359,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4420,22 +4416,22 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4449,7 +4445,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4478,7 +4474,7 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>95</v>
@@ -4531,7 +4527,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4546,7 +4542,7 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>40</v>
@@ -4560,11 +4556,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4586,10 +4582,10 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>95</v>
@@ -4644,7 +4640,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4673,7 +4669,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4699,13 +4695,13 @@
         <v>61</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4755,7 +4751,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4784,7 +4780,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4807,16 +4803,16 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4866,7 +4862,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4895,7 +4891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4921,13 +4917,13 @@
         <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4977,7 +4973,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5006,7 +5002,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5029,16 +5025,16 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5088,7 +5084,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5117,11 +5113,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5140,16 +5136,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5199,7 +5195,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -5211,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>40</v>
@@ -5228,7 +5224,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5251,13 +5247,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5308,22 +5304,22 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
@@ -5337,7 +5333,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5366,7 +5362,7 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>95</v>
@@ -5419,7 +5415,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5434,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5448,11 +5444,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5474,10 +5470,10 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>95</v>
@@ -5532,7 +5528,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5561,7 +5557,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5587,10 +5583,10 @@
         <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5641,7 +5637,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5670,7 +5666,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5693,16 +5689,16 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5752,7 +5748,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5781,7 +5777,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5804,16 +5800,16 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5863,7 +5859,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5875,7 +5871,7 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>40</v>
@@ -5892,7 +5888,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5915,13 +5911,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5972,22 +5968,22 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6001,7 +5997,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6030,7 +6026,7 @@
         <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>95</v>
@@ -6083,7 +6079,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6098,7 +6094,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6112,11 +6108,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6138,10 +6134,10 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>95</v>
@@ -6196,7 +6192,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6225,7 +6221,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6251,10 +6247,10 @@
         <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6305,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6334,7 +6330,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6357,16 +6353,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6416,7 +6412,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6445,7 +6441,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6471,13 +6467,13 @@
         <v>67</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6503,14 +6499,14 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6527,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>48</v>
@@ -6556,7 +6552,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6579,13 +6575,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6636,7 +6632,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6645,7 +6641,7 @@
         <v>48</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>40</v>
@@ -6665,7 +6661,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6688,13 +6684,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6745,7 +6741,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6757,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>40</v>
@@ -6774,7 +6770,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6797,13 +6793,13 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6854,22 +6850,22 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -6883,7 +6879,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6912,7 +6908,7 @@
         <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>95</v>
@@ -6965,7 +6961,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6980,7 +6976,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -6994,11 +6990,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7020,10 +7016,10 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>95</v>
@@ -7078,7 +7074,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7107,7 +7103,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7133,10 +7129,10 @@
         <v>61</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7187,7 +7183,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>48</v>
@@ -7216,7 +7212,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7239,13 +7235,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7253,7 +7249,7 @@
         <v>40</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>40</v>
@@ -7298,7 +7294,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7327,7 +7323,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7350,13 +7346,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7407,7 +7403,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>48</v>
@@ -7436,7 +7432,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7459,16 +7455,16 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7518,7 +7514,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7547,7 +7543,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7573,10 +7569,10 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7627,7 +7623,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7656,7 +7652,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7679,16 +7675,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7738,7 +7734,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7750,7 +7746,7 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
@@ -7767,7 +7763,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7790,13 +7786,13 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7847,22 +7843,22 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -7876,7 +7872,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7905,7 +7901,7 @@
         <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>95</v>
@@ -7958,7 +7954,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -7973,7 +7969,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -7987,11 +7983,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8013,10 +8009,10 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>95</v>
@@ -8071,7 +8067,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8100,7 +8096,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8126,10 +8122,10 @@
         <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8156,14 +8152,14 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8180,7 +8176,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>48</v>
@@ -8209,7 +8205,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8235,10 +8231,10 @@
         <v>67</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8289,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8318,7 +8314,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8341,16 +8337,16 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8400,7 +8396,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8429,7 +8425,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8452,13 +8448,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8509,7 +8505,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
